--- a/va_facility_data_2025-02-20/Springfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Springfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Springfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Springfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra221c2caf2444a008319968913ed4e03"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbbea182fe7774e728e138f4fa797c951"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re43caff1b1894bc4a5517b6611053a7b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R10288e5123e745a2998ab23566f26fd4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9a2b093dff3545788f371a5241f08f53"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ref6fad019b0d4ad48dd856c0a86e5d82"/>
   </x:sheets>
 </x:workbook>
 </file>
